--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpassas/Documents/current_projects/NVSS/fhir-bfdr/input/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333706C9-5AE8-3A4C-A9F1-BC291B65B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD5754-263B-DF43-A8F8-25ED04436EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
+    <workbookView xWindow="5460" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR Form Items" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1106">
   <si>
     <t>2. What is your current legal name?</t>
   </si>
@@ -3550,9 +3550,6 @@
   </si>
   <si>
     <t>Patient-decedent-fetus.birthDate.extension</t>
-  </si>
-  <si>
-    <t>Observation-none-of-specified-characteristics-of-labor-delivery</t>
   </si>
 </sst>
 </file>
@@ -4273,9 +4270,9 @@
   <dimension ref="A1:L3145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="51.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6552,10 +6549,10 @@
         <v>635</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>1106</v>
+        <v>729</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>1106</v>
+        <v>729</v>
       </c>
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
@@ -8514,7 +8511,7 @@
         <v>1099</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>1099</v>
+        <v>1072</v>
       </c>
       <c r="H159" s="26"/>
       <c r="I159" s="26"/>
@@ -12405,7 +12402,7 @@
       <c r="F300" s="26" t="s">
         <v>1100</v>
       </c>
-      <c r="G300" s="26" t="s">
+      <c r="G300" t="s">
         <v>1100</v>
       </c>
       <c r="H300" s="26"/>
@@ -15081,7 +15078,7 @@
       <c r="F402" s="26" t="s">
         <v>1100</v>
       </c>
-      <c r="G402" s="26" t="s">
+      <c r="G402" t="s">
         <v>1100</v>
       </c>
       <c r="I402" s="26"/>
@@ -25264,15 +25261,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005096E86C82FA8C4AA9C6C4E3CB43FBC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3691e5212bdf4535f084bb6029a7aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4539b44-c7c4-4ec8-bb6c-675c694d1d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63488d226906f1373fe69f5df23de5c6" ns2:_="">
     <xsd:import namespace="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
@@ -25430,6 +25418,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
   <ds:schemaRefs>
@@ -25447,14 +25444,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25470,4 +25459,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>